--- a/2010_dengue_extracted.xlsx
+++ b/2010_dengue_extracted.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6816"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10788" windowHeight="3960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -834,1815 +834,1815 @@
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3889</v>
-      </c>
-      <c r="C5" s="2">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2">
-        <v>110</v>
-      </c>
-      <c r="E5" s="2">
-        <v>125</v>
-      </c>
-      <c r="F5" s="2">
-        <v>102</v>
-      </c>
-      <c r="G5" s="2">
-        <v>182</v>
-      </c>
-      <c r="H5" s="2">
-        <v>406</v>
-      </c>
-      <c r="I5" s="2">
-        <v>735</v>
-      </c>
-      <c r="J5" s="2">
-        <v>986</v>
-      </c>
-      <c r="K5" s="2">
-        <v>737</v>
-      </c>
-      <c r="L5" s="2">
-        <v>258</v>
-      </c>
-      <c r="M5" s="2">
-        <v>102</v>
-      </c>
-      <c r="N5" s="2">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2">
-        <v>975</v>
+        <v>3889</v>
       </c>
       <c r="C6" s="2">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="F6" s="2">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="H6" s="2">
+        <v>406</v>
+      </c>
       <c r="I6" s="2">
-        <v>145</v>
+        <v>735</v>
       </c>
       <c r="J6" s="2">
-        <v>166</v>
+        <v>986</v>
       </c>
       <c r="K6" s="2">
-        <v>139</v>
+        <v>737</v>
       </c>
       <c r="L6" s="2">
-        <v>117</v>
+        <v>258</v>
       </c>
       <c r="M6" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>205</v>
+        <v>975</v>
       </c>
       <c r="C7" s="2">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2">
-        <v>11</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="J7" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="K7" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="L7" s="2">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="M7" s="2">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="N7" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>952</v>
+        <v>205</v>
       </c>
       <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45</v>
+      </c>
+      <c r="L8" s="2">
         <v>17</v>
       </c>
-      <c r="D8" s="2">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>58</v>
-      </c>
-      <c r="F8" s="2">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2">
-        <v>95</v>
-      </c>
-      <c r="H8" s="2">
-        <v>128</v>
-      </c>
-      <c r="I8" s="2">
-        <v>210</v>
-      </c>
-      <c r="J8" s="2">
-        <v>192</v>
-      </c>
-      <c r="K8" s="2">
-        <v>115</v>
-      </c>
-      <c r="L8" s="2">
-        <v>40</v>
-      </c>
       <c r="M8" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2">
+        <v>952</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
         <v>36</v>
       </c>
-      <c r="B9" s="2">
-        <v>2222</v>
-      </c>
-      <c r="C9" s="2">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2">
-        <v>60</v>
-      </c>
       <c r="E9" s="2">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2">
-        <v>352</v>
+        <v>95</v>
       </c>
       <c r="H9" s="2">
-        <v>487</v>
+        <v>128</v>
       </c>
       <c r="I9" s="2">
-        <v>456</v>
+        <v>210</v>
       </c>
       <c r="J9" s="2">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="K9" s="2">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="L9" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="M9" s="2">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N9" s="2">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
-        <v>6546</v>
+        <v>2222</v>
       </c>
       <c r="C10" s="2">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="G10" s="2">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="H10" s="2">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="I10" s="2">
-        <v>1850</v>
+        <v>456</v>
       </c>
       <c r="J10" s="2">
-        <v>2304</v>
+        <v>255</v>
       </c>
       <c r="K10" s="2">
-        <v>1153</v>
+        <v>172</v>
       </c>
       <c r="L10" s="2">
-        <v>283</v>
+        <v>85</v>
       </c>
       <c r="M10" s="2">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N10" s="2">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2">
-        <v>2349</v>
+        <v>6546</v>
       </c>
       <c r="C11" s="2">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="H11" s="2">
-        <v>213</v>
+        <v>525</v>
       </c>
       <c r="I11" s="2">
-        <v>571</v>
+        <v>1850</v>
       </c>
       <c r="J11" s="2">
-        <v>707</v>
+        <v>2304</v>
       </c>
       <c r="K11" s="2">
-        <v>434</v>
+        <v>1153</v>
       </c>
       <c r="L11" s="2">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="M11" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N11" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2">
-        <v>2280</v>
+        <v>2349</v>
       </c>
       <c r="C12" s="2">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2">
-        <v>291</v>
+        <v>213</v>
       </c>
       <c r="I12" s="2">
-        <v>402</v>
+        <v>571</v>
       </c>
       <c r="J12" s="2">
-        <v>457</v>
+        <v>707</v>
       </c>
       <c r="K12" s="2">
-        <v>319</v>
+        <v>434</v>
       </c>
       <c r="L12" s="2">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
-        <v>668</v>
+        <v>2280</v>
       </c>
       <c r="C13" s="2">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2">
+        <v>140</v>
+      </c>
+      <c r="F13" s="2">
+        <v>142</v>
+      </c>
+      <c r="G13" s="2">
+        <v>231</v>
+      </c>
+      <c r="H13" s="2">
+        <v>291</v>
+      </c>
+      <c r="I13" s="2">
+        <v>402</v>
+      </c>
+      <c r="J13" s="2">
+        <v>457</v>
+      </c>
+      <c r="K13" s="2">
+        <v>319</v>
+      </c>
+      <c r="L13" s="2">
         <v>30</v>
       </c>
-      <c r="F13" s="2">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2">
-        <v>56</v>
-      </c>
-      <c r="H13" s="2">
-        <v>95</v>
-      </c>
-      <c r="I13" s="2">
-        <v>84</v>
-      </c>
-      <c r="J13" s="2">
-        <v>68</v>
-      </c>
-      <c r="K13" s="2">
-        <v>103</v>
-      </c>
-      <c r="L13" s="2">
-        <v>82</v>
-      </c>
       <c r="M13" s="2">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2">
-        <v>465</v>
+        <v>668</v>
       </c>
       <c r="C14" s="2">
         <v>19</v>
       </c>
       <c r="D14" s="2">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H14" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I14" s="2">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="J14" s="2">
+        <v>68</v>
+      </c>
+      <c r="K14" s="2">
+        <v>103</v>
+      </c>
+      <c r="L14" s="2">
+        <v>82</v>
+      </c>
+      <c r="M14" s="2">
         <v>61</v>
       </c>
-      <c r="K14" s="2">
-        <v>63</v>
-      </c>
-      <c r="L14" s="2">
-        <v>20</v>
-      </c>
-      <c r="M14" s="2">
-        <v>8</v>
-      </c>
       <c r="N14" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="C15" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H15" s="2">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="I15" s="2">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J15" s="2">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L15" s="2">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M15" s="2">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N15" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2">
-        <v>710</v>
+        <v>541</v>
       </c>
       <c r="C16" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2">
+        <v>39</v>
+      </c>
+      <c r="I16" s="2">
+        <v>66</v>
+      </c>
+      <c r="J16" s="2">
+        <v>116</v>
+      </c>
+      <c r="K16" s="2">
+        <v>73</v>
+      </c>
+      <c r="L16" s="2">
+        <v>45</v>
+      </c>
+      <c r="M16" s="2">
+        <v>26</v>
+      </c>
+      <c r="N16" s="2">
         <v>20</v>
-      </c>
-      <c r="G16" s="2">
-        <v>31</v>
-      </c>
-      <c r="H16" s="2">
-        <v>59</v>
-      </c>
-      <c r="I16" s="2">
-        <v>111</v>
-      </c>
-      <c r="J16" s="2">
-        <v>122</v>
-      </c>
-      <c r="K16" s="2">
-        <v>106</v>
-      </c>
-      <c r="L16" s="2">
-        <v>64</v>
-      </c>
-      <c r="M16" s="2">
-        <v>48</v>
-      </c>
-      <c r="N16" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2">
-        <v>1021</v>
+        <v>710</v>
       </c>
       <c r="C17" s="2">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2">
+        <v>31</v>
+      </c>
+      <c r="H17" s="2">
+        <v>59</v>
+      </c>
+      <c r="I17" s="2">
+        <v>111</v>
+      </c>
+      <c r="J17" s="2">
+        <v>122</v>
+      </c>
+      <c r="K17" s="2">
+        <v>106</v>
+      </c>
+      <c r="L17" s="2">
+        <v>64</v>
+      </c>
+      <c r="M17" s="2">
+        <v>48</v>
+      </c>
+      <c r="N17" s="2">
         <v>23</v>
-      </c>
-      <c r="D17" s="2">
-        <v>52</v>
-      </c>
-      <c r="E17" s="2">
-        <v>75</v>
-      </c>
-      <c r="F17" s="2">
-        <v>23</v>
-      </c>
-      <c r="G17" s="2">
-        <v>59</v>
-      </c>
-      <c r="H17" s="2">
-        <v>115</v>
-      </c>
-      <c r="I17" s="2">
-        <v>182</v>
-      </c>
-      <c r="J17" s="2">
-        <v>197</v>
-      </c>
-      <c r="K17" s="2">
-        <v>171</v>
-      </c>
-      <c r="L17" s="2">
-        <v>65</v>
-      </c>
-      <c r="M17" s="2">
-        <v>15</v>
-      </c>
-      <c r="N17" s="2">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1021</v>
+      </c>
+      <c r="C18" s="2">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2">
+        <v>75</v>
+      </c>
+      <c r="F18" s="2">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2">
+        <v>59</v>
+      </c>
+      <c r="H18" s="2">
+        <v>115</v>
+      </c>
+      <c r="I18" s="2">
+        <v>182</v>
+      </c>
+      <c r="J18" s="2">
+        <v>197</v>
+      </c>
+      <c r="K18" s="2">
+        <v>171</v>
+      </c>
+      <c r="L18" s="2">
+        <v>65</v>
+      </c>
+      <c r="M18" s="2">
+        <v>15</v>
+      </c>
+      <c r="N18" s="2">
         <v>44</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1678</v>
-      </c>
-      <c r="C18" s="2">
-        <v>62</v>
-      </c>
-      <c r="D18" s="2">
-        <v>51</v>
-      </c>
-      <c r="E18" s="2">
-        <v>60</v>
-      </c>
-      <c r="F18" s="2">
-        <v>57</v>
-      </c>
-      <c r="G18" s="2">
-        <v>170</v>
-      </c>
-      <c r="H18" s="2">
-        <v>274</v>
-      </c>
-      <c r="I18" s="2">
-        <v>344</v>
-      </c>
-      <c r="J18" s="2">
-        <v>304</v>
-      </c>
-      <c r="K18" s="2">
-        <v>163</v>
-      </c>
-      <c r="L18" s="2">
-        <v>89</v>
-      </c>
-      <c r="M18" s="2">
-        <v>56</v>
-      </c>
-      <c r="N18" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2">
-        <v>1525</v>
+        <v>1678</v>
       </c>
       <c r="C19" s="2">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G19" s="2">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="H19" s="2">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="I19" s="2">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J19" s="2">
-        <v>583</v>
+        <v>304</v>
       </c>
       <c r="K19" s="2">
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="L19" s="2">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="M19" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N19" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2">
-        <v>532</v>
+        <v>1525</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2">
         <v>39</v>
       </c>
       <c r="H20" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I20" s="2">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="J20" s="2">
-        <v>135</v>
+        <v>583</v>
       </c>
       <c r="K20" s="2">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="L20" s="2">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="M20" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N20" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2">
-        <v>902</v>
+        <v>532</v>
       </c>
       <c r="C21" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2">
+        <v>39</v>
+      </c>
+      <c r="H21" s="2">
+        <v>97</v>
+      </c>
+      <c r="I21" s="2">
+        <v>129</v>
+      </c>
+      <c r="J21" s="2">
+        <v>135</v>
+      </c>
+      <c r="K21" s="2">
         <v>51</v>
       </c>
-      <c r="G21" s="2">
-        <v>137</v>
-      </c>
-      <c r="H21" s="2">
-        <v>232</v>
-      </c>
-      <c r="I21" s="2">
-        <v>175</v>
-      </c>
-      <c r="J21" s="2">
-        <v>136</v>
-      </c>
-      <c r="K21" s="2">
-        <v>47</v>
-      </c>
       <c r="L21" s="2">
+        <v>22</v>
+      </c>
+      <c r="M21" s="2">
         <v>15</v>
       </c>
-      <c r="M21" s="2">
-        <v>4</v>
-      </c>
       <c r="N21" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2">
-        <v>1218</v>
+        <v>902</v>
       </c>
       <c r="C22" s="2">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G22" s="2">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="H22" s="2">
-        <v>65</v>
+        <v>232</v>
       </c>
       <c r="I22" s="2">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="J22" s="2">
-        <v>358</v>
+        <v>136</v>
       </c>
       <c r="K22" s="2">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="L22" s="2">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M22" s="2">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="N22" s="2">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>649</v>
+        <v>1218</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="F23" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G23" s="2">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H23" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I23" s="2">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="J23" s="2">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="K23" s="2">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="L23" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M23" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="N23" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2">
-        <v>808</v>
+        <v>649</v>
       </c>
       <c r="C24" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G24" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H24" s="2">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I24" s="2">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J24" s="2">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="K24" s="2">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="L24" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M24" s="2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N24" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2">
-        <v>872</v>
+        <v>808</v>
       </c>
       <c r="C25" s="2">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2">
+        <v>16</v>
+      </c>
+      <c r="G25" s="2">
+        <v>37</v>
+      </c>
+      <c r="H25" s="2">
+        <v>89</v>
+      </c>
+      <c r="I25" s="2">
+        <v>139</v>
+      </c>
+      <c r="J25" s="2">
+        <v>238</v>
+      </c>
+      <c r="K25" s="2">
+        <v>152</v>
+      </c>
+      <c r="L25" s="2">
+        <v>70</v>
+      </c>
+      <c r="M25" s="2">
         <v>23</v>
       </c>
-      <c r="E25" s="2">
-        <v>49</v>
-      </c>
-      <c r="F25" s="2">
-        <v>30</v>
-      </c>
-      <c r="G25" s="2">
-        <v>111</v>
-      </c>
-      <c r="H25" s="2">
-        <v>278</v>
-      </c>
-      <c r="I25" s="2">
-        <v>196</v>
-      </c>
-      <c r="J25" s="2">
-        <v>102</v>
-      </c>
-      <c r="K25" s="2">
-        <v>28</v>
-      </c>
-      <c r="L25" s="2">
-        <v>21</v>
-      </c>
-      <c r="M25" s="2">
-        <v>7</v>
-      </c>
       <c r="N25" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2">
-        <v>99</v>
+        <v>872</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G26" s="2">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="H26" s="2">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="I26" s="2">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="J26" s="2">
+        <v>102</v>
+      </c>
+      <c r="K26" s="2">
+        <v>28</v>
+      </c>
+      <c r="L26" s="2">
         <v>21</v>
       </c>
-      <c r="K26" s="2">
-        <v>9</v>
-      </c>
-      <c r="L26" s="2">
-        <v>11</v>
-      </c>
       <c r="M26" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>1535</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="F27" s="2">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H27" s="2">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I27" s="2">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="J27" s="2">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="K27" s="2">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="L27" s="2">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="M27" s="2">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
-        <v>1013</v>
+        <v>1535</v>
       </c>
       <c r="C28" s="2">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G28" s="2">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="H28" s="2">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="I28" s="2">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="J28" s="2">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="K28" s="2">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="L28" s="2">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="M28" s="2">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="N28" s="2">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2">
-        <v>5620</v>
+        <v>1013</v>
       </c>
       <c r="C29" s="2">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="E29" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="F29" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2">
-        <v>376</v>
+        <v>174</v>
       </c>
       <c r="H29" s="2">
-        <v>769</v>
+        <v>208</v>
       </c>
       <c r="I29" s="2">
-        <v>1081</v>
+        <v>216</v>
       </c>
       <c r="J29" s="2">
-        <v>1290</v>
+        <v>138</v>
       </c>
       <c r="K29" s="2">
-        <v>964</v>
+        <v>99</v>
       </c>
       <c r="L29" s="2">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="M29" s="2">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="N29" s="2">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5620</v>
+      </c>
+      <c r="C30" s="2">
+        <v>94</v>
+      </c>
+      <c r="D30" s="2">
+        <v>82</v>
+      </c>
+      <c r="E30" s="2">
+        <v>183</v>
+      </c>
+      <c r="F30" s="2">
+        <v>167</v>
+      </c>
+      <c r="G30" s="2">
+        <v>376</v>
+      </c>
+      <c r="H30" s="2">
+        <v>769</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1081</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1290</v>
+      </c>
+      <c r="K30" s="2">
+        <v>964</v>
+      </c>
+      <c r="L30" s="2">
+        <v>313</v>
+      </c>
+      <c r="M30" s="2">
+        <v>214</v>
+      </c>
+      <c r="N30" s="2">
         <v>87</v>
-      </c>
-      <c r="B30" s="2">
-        <v>696</v>
-      </c>
-      <c r="C30" s="2">
-        <v>35</v>
-      </c>
-      <c r="D30" s="2">
-        <v>33</v>
-      </c>
-      <c r="E30" s="2">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2">
-        <v>15</v>
-      </c>
-      <c r="G30" s="2">
-        <v>19</v>
-      </c>
-      <c r="H30" s="2">
-        <v>34</v>
-      </c>
-      <c r="I30" s="2">
-        <v>81</v>
-      </c>
-      <c r="J30" s="2">
-        <v>141</v>
-      </c>
-      <c r="K30" s="2">
-        <v>108</v>
-      </c>
-      <c r="L30" s="2">
-        <v>66</v>
-      </c>
-      <c r="M30" s="2">
-        <v>81</v>
-      </c>
-      <c r="N30" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2">
-        <v>6039</v>
+        <v>696</v>
       </c>
       <c r="C31" s="2">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="F31" s="2">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2">
-        <v>361</v>
+        <v>19</v>
       </c>
       <c r="H31" s="2">
-        <v>655</v>
+        <v>34</v>
       </c>
       <c r="I31" s="2">
-        <v>1367</v>
+        <v>81</v>
       </c>
       <c r="J31" s="2">
-        <v>1209</v>
+        <v>141</v>
       </c>
       <c r="K31" s="2">
-        <v>833</v>
+        <v>108</v>
       </c>
       <c r="L31" s="2">
-        <v>529</v>
+        <v>66</v>
       </c>
       <c r="M31" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="N31" s="2">
-        <v>161</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
-        <v>278</v>
+        <v>6039</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="F32" s="2">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="G32" s="2">
-        <v>21</v>
+        <v>361</v>
       </c>
       <c r="H32" s="2">
-        <v>63</v>
+        <v>655</v>
       </c>
       <c r="I32" s="2">
-        <v>42</v>
+        <v>1367</v>
       </c>
       <c r="J32" s="2">
-        <v>55</v>
+        <v>1209</v>
       </c>
       <c r="K32" s="2">
-        <v>36</v>
+        <v>833</v>
       </c>
       <c r="L32" s="2">
-        <v>31</v>
+        <v>529</v>
       </c>
       <c r="M32" s="2">
-        <v>6</v>
+        <v>294</v>
       </c>
       <c r="N32" s="2">
-        <v>3</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2">
-        <v>3485</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="H33" s="2">
-        <v>404</v>
+        <v>63</v>
       </c>
       <c r="I33" s="2">
-        <v>735</v>
+        <v>42</v>
       </c>
       <c r="J33" s="2">
-        <v>880</v>
+        <v>55</v>
       </c>
       <c r="K33" s="2">
-        <v>547</v>
+        <v>36</v>
       </c>
       <c r="L33" s="2">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="M33" s="2">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="N33" s="2">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2">
-        <v>211</v>
+        <v>3485</v>
       </c>
       <c r="C34" s="2">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F34" s="2">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="G34" s="2">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="H34" s="2">
-        <v>63</v>
+        <v>404</v>
       </c>
       <c r="I34" s="2">
-        <v>44</v>
+        <v>735</v>
       </c>
       <c r="J34" s="2">
-        <v>29</v>
+        <v>880</v>
       </c>
       <c r="K34" s="2">
-        <v>7</v>
+        <v>547</v>
       </c>
       <c r="L34" s="2">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="M34" s="2">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="N34" s="2">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2">
-        <v>894</v>
+        <v>211</v>
       </c>
       <c r="C35" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="G35" s="2">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="H35" s="2">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="I35" s="2">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="J35" s="2">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="K35" s="2">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="L35" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2">
-        <v>1582</v>
+        <v>894</v>
       </c>
       <c r="C36" s="2">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="E36" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F36" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G36" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="H36" s="2">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="I36" s="2">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="J36" s="2">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="K36" s="2">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="L36" s="2">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="M36" s="2">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="N36" s="2">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2">
-        <v>562</v>
+        <v>1582</v>
       </c>
       <c r="C37" s="2">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="D37" s="2">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="E37" s="2">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F37" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G37" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H37" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="I37" s="2">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="J37" s="2">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="K37" s="2">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="L37" s="2">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="M37" s="2">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="N37" s="2">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2">
-        <v>775</v>
+        <v>562</v>
       </c>
       <c r="C38" s="2">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D38" s="2">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F38" s="2">
         <v>30</v>
       </c>
       <c r="G38" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H38" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I38" s="2">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J38" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="K38" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="L38" s="2">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M38" s="2">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N38" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B39" s="2">
-        <v>3196</v>
+        <v>775</v>
       </c>
       <c r="C39" s="2">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="G39" s="2">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="H39" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="I39" s="2">
-        <v>596</v>
+        <v>75</v>
       </c>
       <c r="J39" s="2">
-        <v>637</v>
+        <v>121</v>
       </c>
       <c r="K39" s="2">
-        <v>427</v>
+        <v>114</v>
       </c>
       <c r="L39" s="2">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="M39" s="2">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="N39" s="2">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2">
-        <v>590</v>
+        <v>3196</v>
       </c>
       <c r="C40" s="2">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D40" s="2">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E40" s="2">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F40" s="2">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G40" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="H40" s="2">
-        <v>89</v>
+        <v>310</v>
       </c>
       <c r="I40" s="2">
-        <v>119</v>
+        <v>596</v>
       </c>
       <c r="J40" s="2">
-        <v>105</v>
+        <v>637</v>
       </c>
       <c r="K40" s="2">
-        <v>85</v>
+        <v>427</v>
       </c>
       <c r="L40" s="2">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="M40" s="2">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="N40" s="2">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>2078</v>
+        <v>590</v>
       </c>
       <c r="C41" s="2">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E41" s="2">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F41" s="2">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G41" s="2">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="H41" s="2">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="I41" s="2">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="J41" s="2">
-        <v>435</v>
+        <v>105</v>
       </c>
       <c r="K41" s="2">
-        <v>355</v>
+        <v>85</v>
       </c>
       <c r="L41" s="2">
-        <v>270</v>
+        <v>48</v>
       </c>
       <c r="M41" s="2">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="N41" s="2">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>1366</v>
+        <v>2078</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D42" s="2">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="G42" s="2">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="H42" s="2">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="I42" s="2">
-        <v>409</v>
+        <v>247</v>
       </c>
       <c r="J42" s="2">
-        <v>522</v>
+        <v>435</v>
       </c>
       <c r="K42" s="2">
-        <v>194</v>
+        <v>355</v>
       </c>
       <c r="L42" s="2">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="M42" s="2">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="N42" s="2">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2">
-        <v>2300</v>
+        <v>1366</v>
       </c>
       <c r="C43" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D43" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E43" s="2">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="F43" s="2">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="G43" s="2">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="H43" s="2">
-        <v>334</v>
+        <v>147</v>
       </c>
       <c r="I43" s="2">
-        <v>591</v>
+        <v>409</v>
       </c>
       <c r="J43" s="2">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="K43" s="2">
-        <v>346</v>
+        <v>194</v>
       </c>
       <c r="L43" s="2">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="M43" s="2">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N43" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2">
-        <v>427</v>
+        <v>2300</v>
       </c>
       <c r="C44" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E44" s="2">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F44" s="2">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G44" s="2">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="H44" s="2">
-        <v>31</v>
+        <v>334</v>
       </c>
       <c r="I44" s="2">
-        <v>40</v>
+        <v>591</v>
       </c>
       <c r="J44" s="2">
-        <v>36</v>
+        <v>547</v>
       </c>
       <c r="K44" s="2">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="L44" s="2">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="M44" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N44" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C45" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E45" s="2">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="G45" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H45" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I45" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J45" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="K45" s="2">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="L45" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M45" s="2">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N45" s="2">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2">
-        <v>821</v>
+        <v>412</v>
       </c>
       <c r="C46" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" s="2">
         <v>32</v>
@@ -2651,1260 +2651,1260 @@
         <v>35</v>
       </c>
       <c r="F46" s="2">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G46" s="2">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="I46" s="2">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="J46" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="K46" s="2">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="L46" s="2">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="M46" s="2">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N46" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2">
-        <v>326</v>
+        <v>821</v>
       </c>
       <c r="C47" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E47" s="2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F47" s="2">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G47" s="2">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H47" s="2">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I47" s="2">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J47" s="2">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="K47" s="2">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="L47" s="2">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="M47" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="N47" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2">
-        <v>654</v>
+        <v>326</v>
       </c>
       <c r="C48" s="2">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D48" s="2">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E48" s="2">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="F48" s="2">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G48" s="2">
+        <v>17</v>
+      </c>
+      <c r="H48" s="2">
+        <v>25</v>
+      </c>
+      <c r="I48" s="2">
         <v>50</v>
       </c>
-      <c r="H48" s="2">
-        <v>129</v>
-      </c>
-      <c r="I48" s="2">
-        <v>130</v>
-      </c>
       <c r="J48" s="2">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="K48" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L48" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M48" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N48" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2">
-        <v>1348</v>
+        <v>654</v>
       </c>
       <c r="C49" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E49" s="2">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="G49" s="2">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="H49" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="I49" s="2">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="J49" s="2">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="K49" s="2">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="L49" s="2">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="M49" s="2">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="N49" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B50" s="2">
-        <v>824</v>
+        <v>1348</v>
       </c>
       <c r="C50" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E50" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="G50" s="2">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="H50" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="I50" s="2">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="J50" s="2">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="K50" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L50" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="M50" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="N50" s="2">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2">
-        <v>180</v>
+        <v>824</v>
       </c>
       <c r="C51" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E51" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F51" s="2">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G51" s="2">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="H51" s="2">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I51" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="J51" s="2">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="K51" s="2">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="L51" s="2">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="M51" s="2">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="N51" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2">
-        <v>1122</v>
+        <v>180</v>
       </c>
       <c r="C52" s="2">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="E52" s="2">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F52" s="2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G52" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H52" s="2">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I52" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="J52" s="2">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="K52" s="2">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="L52" s="2">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="M52" s="2">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="N52" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B53" s="2">
-        <v>2134</v>
+        <v>1122</v>
       </c>
       <c r="C53" s="2">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="D53" s="2">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F53" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="G53" s="2">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="H53" s="2">
-        <v>293</v>
+        <v>60</v>
       </c>
       <c r="I53" s="2">
-        <v>431</v>
+        <v>127</v>
       </c>
       <c r="J53" s="2">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="K53" s="2">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="L53" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M53" s="2">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N53" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B54" s="2">
-        <v>1618</v>
+        <v>2134</v>
       </c>
       <c r="C54" s="2">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E54" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F54" s="2">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="G54" s="2">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="H54" s="2">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="I54" s="2">
-        <v>273</v>
+        <v>431</v>
       </c>
       <c r="J54" s="2">
-        <v>471</v>
+        <v>353</v>
       </c>
       <c r="K54" s="2">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="L54" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="M54" s="2">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="N54" s="2">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2">
-        <v>812</v>
+        <v>1618</v>
       </c>
       <c r="C55" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D55" s="2">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E55" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F55" s="2">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G55" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H55" s="2">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="I55" s="2">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="J55" s="2">
-        <v>157</v>
+        <v>471</v>
       </c>
       <c r="K55" s="2">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="L55" s="2">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="M55" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="N55" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B56" s="2">
-        <v>1019</v>
+        <v>812</v>
       </c>
       <c r="C56" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E56" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G56" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="H56" s="2">
-        <v>337</v>
+        <v>141</v>
       </c>
       <c r="I56" s="2">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c r="J56" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="K56" s="2">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="L56" s="2">
+        <v>20</v>
+      </c>
+      <c r="M56" s="2">
+        <v>7</v>
+      </c>
+      <c r="N56" s="2">
         <v>4</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2">
-        <v>2160</v>
+        <v>1019</v>
       </c>
       <c r="C57" s="2">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="D57" s="2">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="E57" s="2">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="G57" s="2">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="H57" s="2">
-        <v>124</v>
+        <v>337</v>
       </c>
       <c r="I57" s="2">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="J57" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="K57" s="2">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="L57" s="2">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="M57" s="2">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="N57" s="2">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B58" s="2">
-        <v>810</v>
+        <v>2160</v>
       </c>
       <c r="C58" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D58" s="2">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="E58" s="2">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="F58" s="2">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="G58" s="2">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H58" s="2">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I58" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="J58" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="K58" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="L58" s="2">
-        <v>49</v>
+        <v>264</v>
       </c>
       <c r="M58" s="2">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="N58" s="2">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" s="2">
-        <v>113</v>
+        <v>810</v>
       </c>
       <c r="C59" s="2">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="D59" s="2">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F59" s="2">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G59" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H59" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="I59" s="2">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J59" s="2">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="K59" s="2">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L59" s="2">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="M59" s="2">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="N59" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B60" s="2">
-        <v>631</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D60" s="2">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E60" s="2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F60" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G60" s="2">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H60" s="2">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="I60" s="2">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="J60" s="2">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="K60" s="2">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="L60" s="2">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="M60" s="2">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="N60" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B61" s="2">
-        <v>1062</v>
+        <v>631</v>
       </c>
       <c r="C61" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E61" s="2">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F61" s="2">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="G61" s="2">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="H61" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="I61" s="2">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="J61" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="K61" s="2">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="L61" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M61" s="2">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N61" s="2">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B62" s="2">
-        <v>2633</v>
+        <v>1062</v>
       </c>
       <c r="C62" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D62" s="2">
+        <v>46</v>
+      </c>
+      <c r="E62" s="2">
+        <v>35</v>
+      </c>
+      <c r="F62" s="2">
+        <v>59</v>
+      </c>
+      <c r="G62" s="2">
+        <v>186</v>
+      </c>
+      <c r="H62" s="2">
+        <v>219</v>
+      </c>
+      <c r="I62" s="2">
+        <v>132</v>
+      </c>
+      <c r="J62" s="2">
+        <v>99</v>
+      </c>
+      <c r="K62" s="2">
+        <v>87</v>
+      </c>
+      <c r="L62" s="2">
+        <v>70</v>
+      </c>
+      <c r="M62" s="2">
+        <v>41</v>
+      </c>
+      <c r="N62" s="2">
         <v>51</v>
-      </c>
-      <c r="E62" s="2">
-        <v>109</v>
-      </c>
-      <c r="F62" s="2">
-        <v>74</v>
-      </c>
-      <c r="G62" s="2">
-        <v>251</v>
-      </c>
-      <c r="H62" s="2">
-        <v>443</v>
-      </c>
-      <c r="I62" s="2">
-        <v>436</v>
-      </c>
-      <c r="J62" s="2">
-        <v>579</v>
-      </c>
-      <c r="K62" s="2">
-        <v>327</v>
-      </c>
-      <c r="L62" s="2">
-        <v>203</v>
-      </c>
-      <c r="M62" s="2">
-        <v>88</v>
-      </c>
-      <c r="N62" s="2">
-        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B63" s="2">
-        <v>67</v>
+        <v>2633</v>
       </c>
       <c r="C63" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E63" s="2">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="F63" s="2">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="G63" s="2">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="H63" s="2">
-        <v>4</v>
+        <v>443</v>
       </c>
       <c r="I63" s="2">
-        <v>4</v>
+        <v>436</v>
       </c>
       <c r="J63" s="2">
-        <v>20</v>
+        <v>579</v>
       </c>
       <c r="K63" s="2">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="L63" s="2">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="M63" s="2">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="N63" s="2">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B64" s="2">
-        <v>6048</v>
+        <v>67</v>
       </c>
       <c r="C64" s="2">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="D64" s="2">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="F64" s="2">
-        <v>231</v>
+        <v>4</v>
       </c>
       <c r="G64" s="2">
-        <v>393</v>
+        <v>1</v>
       </c>
       <c r="H64" s="2">
-        <v>821</v>
+        <v>4</v>
       </c>
       <c r="I64" s="2">
-        <v>1211</v>
+        <v>4</v>
       </c>
       <c r="J64" s="2">
-        <v>964</v>
+        <v>20</v>
       </c>
       <c r="K64" s="2">
-        <v>742</v>
+        <v>17</v>
       </c>
       <c r="L64" s="2">
-        <v>555</v>
+        <v>10</v>
       </c>
       <c r="M64" s="2">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B65" s="2">
-        <v>445</v>
+        <v>6048</v>
       </c>
       <c r="C65" s="2">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="D65" s="2">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="E65" s="2">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="F65" s="2">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="G65" s="2">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="H65" s="2">
-        <v>27</v>
+        <v>821</v>
       </c>
       <c r="I65" s="2">
-        <v>69</v>
+        <v>1211</v>
       </c>
       <c r="J65" s="2">
-        <v>90</v>
+        <v>964</v>
       </c>
       <c r="K65" s="2">
-        <v>70</v>
+        <v>742</v>
       </c>
       <c r="L65" s="2">
-        <v>33</v>
+        <v>555</v>
       </c>
       <c r="M65" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="N65" s="2">
-        <v>12</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2">
-        <v>615</v>
+        <v>445</v>
       </c>
       <c r="C66" s="2">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2">
+        <v>14</v>
+      </c>
+      <c r="E66" s="2">
+        <v>24</v>
+      </c>
+      <c r="F66" s="2">
+        <v>42</v>
+      </c>
+      <c r="G66" s="2">
+        <v>27</v>
+      </c>
+      <c r="H66" s="2">
+        <v>27</v>
+      </c>
+      <c r="I66" s="2">
+        <v>69</v>
+      </c>
+      <c r="J66" s="2">
+        <v>90</v>
+      </c>
+      <c r="K66" s="2">
         <v>70</v>
       </c>
-      <c r="D66" s="2">
-        <v>83</v>
-      </c>
-      <c r="E66" s="2">
-        <v>64</v>
-      </c>
-      <c r="F66" s="2">
-        <v>31</v>
-      </c>
-      <c r="G66" s="2">
-        <v>14</v>
-      </c>
-      <c r="H66" s="2">
-        <v>17</v>
-      </c>
-      <c r="I66" s="2">
-        <v>39</v>
-      </c>
-      <c r="J66" s="2">
-        <v>65</v>
-      </c>
-      <c r="K66" s="2">
-        <v>92</v>
-      </c>
       <c r="L66" s="2">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="M66" s="2">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N66" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="2">
+        <v>615</v>
+      </c>
+      <c r="C67" s="2">
+        <v>70</v>
+      </c>
+      <c r="D67" s="2">
+        <v>83</v>
+      </c>
+      <c r="E67" s="2">
+        <v>64</v>
+      </c>
+      <c r="F67" s="2">
+        <v>31</v>
+      </c>
+      <c r="G67" s="2">
+        <v>14</v>
+      </c>
+      <c r="H67" s="2">
+        <v>17</v>
+      </c>
+      <c r="I67" s="2">
+        <v>39</v>
+      </c>
+      <c r="J67" s="2">
+        <v>65</v>
+      </c>
+      <c r="K67" s="2">
+        <v>92</v>
+      </c>
+      <c r="L67" s="2">
+        <v>72</v>
+      </c>
+      <c r="M67" s="2">
         <v>43</v>
       </c>
-      <c r="B67" s="2">
-        <v>2176</v>
-      </c>
-      <c r="C67" s="2">
-        <v>54</v>
-      </c>
-      <c r="D67" s="2">
-        <v>48</v>
-      </c>
-      <c r="E67" s="2">
-        <v>60</v>
-      </c>
-      <c r="F67" s="2">
-        <v>83</v>
-      </c>
-      <c r="G67" s="2">
-        <v>166</v>
-      </c>
-      <c r="H67" s="2">
-        <v>293</v>
-      </c>
-      <c r="I67" s="2">
-        <v>449</v>
-      </c>
-      <c r="J67" s="2">
-        <v>475</v>
-      </c>
-      <c r="K67" s="2">
-        <v>296</v>
-      </c>
-      <c r="L67" s="2">
-        <v>132</v>
-      </c>
-      <c r="M67" s="2">
-        <v>71</v>
-      </c>
       <c r="N67" s="2">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B68" s="2">
-        <v>4639</v>
+        <v>2176</v>
       </c>
       <c r="C68" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D68" s="2">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E68" s="2">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="G68" s="2">
-        <v>439</v>
+        <v>166</v>
       </c>
       <c r="H68" s="2">
-        <v>684</v>
+        <v>293</v>
       </c>
       <c r="I68" s="2">
-        <v>897</v>
+        <v>449</v>
       </c>
       <c r="J68" s="2">
-        <v>1193</v>
+        <v>475</v>
       </c>
       <c r="K68" s="2">
-        <v>706</v>
+        <v>296</v>
       </c>
       <c r="L68" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="M68" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N68" s="2">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2">
-        <v>2087</v>
+        <v>4639</v>
       </c>
       <c r="C69" s="2">
+        <v>42</v>
+      </c>
+      <c r="D69" s="2">
+        <v>54</v>
+      </c>
+      <c r="E69" s="2">
+        <v>140</v>
+      </c>
+      <c r="F69" s="2">
+        <v>210</v>
+      </c>
+      <c r="G69" s="2">
+        <v>439</v>
+      </c>
+      <c r="H69" s="2">
+        <v>684</v>
+      </c>
+      <c r="I69" s="2">
+        <v>897</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1193</v>
+      </c>
+      <c r="K69" s="2">
+        <v>706</v>
+      </c>
+      <c r="L69" s="2">
+        <v>165</v>
+      </c>
+      <c r="M69" s="2">
+        <v>75</v>
+      </c>
+      <c r="N69" s="2">
         <v>34</v>
-      </c>
-      <c r="D69" s="2">
-        <v>21</v>
-      </c>
-      <c r="E69" s="2">
-        <v>56</v>
-      </c>
-      <c r="F69" s="2">
-        <v>158</v>
-      </c>
-      <c r="G69" s="2">
-        <v>187</v>
-      </c>
-      <c r="H69" s="2">
-        <v>351</v>
-      </c>
-      <c r="I69" s="2">
-        <v>569</v>
-      </c>
-      <c r="J69" s="2">
-        <v>411</v>
-      </c>
-      <c r="K69" s="2">
-        <v>189</v>
-      </c>
-      <c r="L69" s="2">
-        <v>36</v>
-      </c>
-      <c r="M69" s="2">
-        <v>47</v>
-      </c>
-      <c r="N69" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2">
-        <v>951</v>
+        <v>2087</v>
       </c>
       <c r="C70" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E70" s="2">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="G70" s="2">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="H70" s="2">
-        <v>195</v>
+        <v>351</v>
       </c>
       <c r="I70" s="2">
-        <v>239</v>
+        <v>569</v>
       </c>
       <c r="J70" s="2">
-        <v>141</v>
+        <v>411</v>
       </c>
       <c r="K70" s="2">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="L70" s="2">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M70" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N70" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B71" s="2">
-        <v>666</v>
+        <v>951</v>
       </c>
       <c r="C71" s="2">
+        <v>29</v>
+      </c>
+      <c r="D71" s="2">
         <v>16</v>
       </c>
-      <c r="D71" s="2">
-        <v>12</v>
-      </c>
       <c r="E71" s="2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F71" s="2">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G71" s="2">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H71" s="2">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="I71" s="2">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="J71" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K71" s="2">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L71" s="2">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M71" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N71" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B72" s="2">
-        <v>1820</v>
+        <v>666</v>
       </c>
       <c r="C72" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E72" s="2">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F72" s="2">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="G72" s="2">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="H72" s="2">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="I72" s="2">
-        <v>340</v>
+        <v>137</v>
       </c>
       <c r="J72" s="2">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="K72" s="2">
-        <v>307</v>
+        <v>53</v>
       </c>
       <c r="L72" s="2">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="M72" s="2">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="N72" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B73" s="2">
-        <v>1246</v>
+        <v>1820</v>
       </c>
       <c r="C73" s="2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D73" s="2">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E73" s="2">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G73" s="2">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="H73" s="2">
-        <v>196</v>
+        <v>306</v>
       </c>
       <c r="I73" s="2">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="J73" s="2">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="K73" s="2">
-        <v>122</v>
+        <v>307</v>
       </c>
       <c r="L73" s="2">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="M73" s="2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="N73" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B74" s="2">
-        <v>153</v>
+        <v>1246</v>
       </c>
       <c r="C74" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E74" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G74" s="2">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="H74" s="2">
+        <v>196</v>
+      </c>
+      <c r="I74" s="2">
+        <v>329</v>
+      </c>
+      <c r="J74" s="2">
+        <v>282</v>
+      </c>
+      <c r="K74" s="2">
+        <v>122</v>
+      </c>
+      <c r="L74" s="2">
+        <v>39</v>
+      </c>
+      <c r="M74" s="2">
         <v>17</v>
-      </c>
-      <c r="I74" s="2">
-        <v>31</v>
-      </c>
-      <c r="J74" s="2">
-        <v>24</v>
-      </c>
-      <c r="K74" s="2">
-        <v>23</v>
-      </c>
-      <c r="L74" s="2">
-        <v>18</v>
-      </c>
-      <c r="M74" s="2">
-        <v>8</v>
       </c>
       <c r="N74" s="2">
         <v>5</v>
@@ -3912,178 +3912,178 @@
     </row>
     <row r="75" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E75" s="2">
         <v>5</v>
       </c>
       <c r="F75" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G75" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H75" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I75" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J75" s="2">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="K75" s="2">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="L75" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M75" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N75" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2">
-        <v>1362</v>
+        <v>228</v>
       </c>
       <c r="C76" s="2">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>5</v>
+      </c>
+      <c r="F76" s="2">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2">
+        <v>12</v>
+      </c>
+      <c r="H76" s="2">
+        <v>13</v>
+      </c>
+      <c r="I76" s="2">
+        <v>28</v>
+      </c>
+      <c r="J76" s="2">
+        <v>45</v>
+      </c>
+      <c r="K76" s="2">
         <v>49</v>
       </c>
-      <c r="E76" s="2">
-        <v>53</v>
-      </c>
-      <c r="F76" s="2">
-        <v>76</v>
-      </c>
-      <c r="G76" s="2">
-        <v>178</v>
-      </c>
-      <c r="H76" s="2">
-        <v>228</v>
-      </c>
-      <c r="I76" s="2">
-        <v>238</v>
-      </c>
-      <c r="J76" s="2">
-        <v>171</v>
-      </c>
-      <c r="K76" s="2">
-        <v>99</v>
-      </c>
       <c r="L76" s="2">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="M76" s="2">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N76" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B77" s="2">
-        <v>404</v>
+        <v>1362</v>
       </c>
       <c r="C77" s="2">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="D77" s="2">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E77" s="2">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G77" s="2">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="H77" s="2">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="I77" s="2">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="J77" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="K77" s="2">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="L77" s="2">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="M77" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="N77" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="B78" s="2">
+        <v>404</v>
+      </c>
+      <c r="C78" s="2">
+        <v>6</v>
+      </c>
+      <c r="D78" s="2">
+        <v>9</v>
+      </c>
+      <c r="E78" s="2">
+        <v>16</v>
+      </c>
+      <c r="F78" s="2">
+        <v>11</v>
+      </c>
+      <c r="G78" s="2">
+        <v>21</v>
+      </c>
+      <c r="H78" s="2">
+        <v>84</v>
+      </c>
+      <c r="I78" s="2">
+        <v>97</v>
+      </c>
+      <c r="J78" s="2">
+        <v>75</v>
+      </c>
+      <c r="K78" s="2">
+        <v>52</v>
+      </c>
+      <c r="L78" s="2">
+        <v>26</v>
+      </c>
+      <c r="M78" s="2">
+        <v>5</v>
+      </c>
+      <c r="N78" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -4092,8 +4092,8 @@
       <c r="N79" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:N77">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:N78">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2010_dengue_extracted.xlsx
+++ b/2010_dengue_extracted.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>Reporting areas</t>
   </si>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -942,7 +942,9 @@
       <c r="G7" s="2">
         <v>59</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I7" s="2">
         <v>145</v>
       </c>

--- a/2010_dengue_extracted.xlsx
+++ b/2010_dengue_extracted.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6993CF-EA18-B543-B157-A43825B9CECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10788" windowHeight="3960"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19360" windowHeight="9760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
-    <t>Reporting areas</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jan</t>
   </si>
   <si>
@@ -297,12 +295,15 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -636,14 +637,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24"/>
     <col min="2" max="9" width="6"/>
@@ -652,50 +651,50 @@
     <col min="13" max="13" width="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -734,9 +733,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>13</v>
@@ -775,9 +774,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>617</v>
@@ -816,50 +815,50 @@
         <v>826</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2">
         <v>60</v>
@@ -898,9 +897,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>48</v>
@@ -918,7 +917,7 @@
         <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="2">
         <v>145</v>
@@ -939,9 +938,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
@@ -980,9 +979,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2">
         <v>17</v>
@@ -1021,9 +1020,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
         <v>28</v>
@@ -1062,9 +1061,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2">
         <v>44</v>
@@ -1103,9 +1102,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2">
         <v>15</v>
@@ -1144,9 +1143,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2">
         <v>133</v>
@@ -1185,9 +1184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2">
         <v>19</v>
@@ -1226,9 +1225,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2">
         <v>19</v>
@@ -1267,9 +1266,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2">
         <v>26</v>
@@ -1308,9 +1307,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>37</v>
@@ -1349,9 +1348,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2">
         <v>23</v>
@@ -1390,9 +1389,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2">
         <v>62</v>
@@ -1431,9 +1430,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2">
         <v>11</v>
@@ -1472,9 +1471,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1513,9 +1512,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2">
         <v>19</v>
@@ -1554,9 +1553,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>33</v>
@@ -1595,9 +1594,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -1636,9 +1635,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -1677,9 +1676,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2">
         <v>22</v>
@@ -1718,9 +1717,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
@@ -1759,9 +1758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>76</v>
@@ -1800,9 +1799,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2">
         <v>11</v>
@@ -1841,9 +1840,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>94</v>
@@ -1882,9 +1881,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2">
         <v>35</v>
@@ -1923,9 +1922,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>157</v>
@@ -1964,9 +1963,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
@@ -2005,9 +2004,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
         <v>86</v>
@@ -2046,9 +2045,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2">
         <v>8</v>
@@ -2087,9 +2086,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2">
         <v>19</v>
@@ -2128,9 +2127,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2">
         <v>136</v>
@@ -2169,9 +2168,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2">
         <v>53</v>
@@ -2210,9 +2209,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2">
         <v>63</v>
@@ -2251,9 +2250,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>135</v>
@@ -2292,9 +2291,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>21</v>
@@ -2333,9 +2332,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>54</v>
@@ -2374,9 +2373,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -2415,9 +2414,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2">
         <v>18</v>
@@ -2456,9 +2455,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="2">
         <v>26</v>
@@ -2497,9 +2496,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2">
         <v>23</v>
@@ -2538,9 +2537,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2">
         <v>24</v>
@@ -2579,9 +2578,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2">
         <v>4</v>
@@ -2620,9 +2619,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2">
         <v>28</v>
@@ -2661,9 +2660,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="2">
         <v>34</v>
@@ -2702,9 +2701,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="2">
         <v>17</v>
@@ -2743,9 +2742,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2">
         <v>9</v>
@@ -2784,9 +2783,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="2">
         <v>119</v>
@@ -2825,9 +2824,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2">
         <v>62</v>
@@ -2866,9 +2865,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2">
         <v>7</v>
@@ -2907,9 +2906,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="2">
         <v>18</v>
@@ -2948,9 +2947,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2">
         <v>23</v>
@@ -2989,9 +2988,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" s="2">
         <v>146</v>
@@ -3030,9 +3029,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="2">
         <v>136</v>
@@ -3071,9 +3070,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="2">
         <v>7</v>
@@ -3112,9 +3111,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="2">
         <v>19</v>
@@ -3153,9 +3152,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="2">
         <v>37</v>
@@ -3194,9 +3193,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2">
         <v>10</v>
@@ -3235,9 +3234,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="2">
         <v>4</v>
@@ -3276,9 +3275,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="2">
         <v>242</v>
@@ -3317,9 +3316,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2">
         <v>17</v>
@@ -3358,9 +3357,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="2">
         <v>70</v>
@@ -3399,9 +3398,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" s="2">
         <v>54</v>
@@ -3440,9 +3439,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2">
         <v>42</v>
@@ -3481,9 +3480,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2">
         <v>34</v>
@@ -3522,9 +3521,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="2">
         <v>29</v>
@@ -3563,9 +3562,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="2">
         <v>16</v>
@@ -3604,9 +3603,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="2">
         <v>4</v>
@@ -3645,9 +3644,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74" s="2">
         <v>32</v>
@@ -3686,9 +3685,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2">
         <v>8</v>
@@ -3727,9 +3726,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2">
         <v>2</v>
@@ -3768,9 +3767,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="2">
         <v>76</v>
@@ -3809,9 +3808,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" s="2">
         <v>6</v>
@@ -3850,13 +3849,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="F79" s="2"/>
       <c r="M79" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:N78">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N78">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2010_dengue_extracted.xlsx
+++ b/2010_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6993CF-EA18-B543-B157-A43825B9CECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4F6993CF-EA18-B543-B157-A43825B9CECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C61C23-232E-496E-AC93-7B3985EA8F68}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19360" windowHeight="9760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,18 +42,9 @@
     <t xml:space="preserve">  May</t>
   </si>
   <si>
-    <t xml:space="preserve">  June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  July</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Aug</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sept</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Oct</t>
   </si>
   <si>
@@ -298,6 +289,15 @@
   </si>
   <si>
     <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sep</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,9 +640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24"/>
     <col min="2" max="9" width="6"/>
@@ -651,9 +653,9 @@
     <col min="13" max="13" width="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -671,30 +673,30 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -733,9 +735,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>13</v>
@@ -774,9 +776,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>617</v>
@@ -815,50 +817,50 @@
         <v>826</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2">
         <v>60</v>
@@ -897,9 +899,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>48</v>
@@ -917,7 +919,7 @@
         <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2">
         <v>145</v>
@@ -938,9 +940,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
@@ -979,9 +981,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2">
         <v>17</v>
@@ -1020,9 +1022,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>28</v>
@@ -1061,9 +1063,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2">
         <v>44</v>
@@ -1102,9 +1104,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2">
         <v>15</v>
@@ -1143,9 +1145,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2">
         <v>133</v>
@@ -1184,9 +1186,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>19</v>
@@ -1225,9 +1227,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2">
         <v>19</v>
@@ -1266,9 +1268,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2">
         <v>26</v>
@@ -1307,9 +1309,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>37</v>
@@ -1348,9 +1350,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2">
         <v>23</v>
@@ -1389,9 +1391,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <v>62</v>
@@ -1430,9 +1432,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2">
         <v>11</v>
@@ -1471,9 +1473,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1512,9 +1514,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2">
         <v>19</v>
@@ -1553,9 +1555,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2">
         <v>33</v>
@@ -1594,9 +1596,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -1635,9 +1637,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -1676,9 +1678,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2">
         <v>22</v>
@@ -1717,9 +1719,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
@@ -1758,9 +1760,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>76</v>
@@ -1799,9 +1801,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2">
         <v>11</v>
@@ -1840,9 +1842,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2">
         <v>94</v>
@@ -1881,9 +1883,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2">
         <v>35</v>
@@ -1922,9 +1924,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
         <v>157</v>
@@ -1963,9 +1965,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
@@ -2004,9 +2006,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2">
         <v>86</v>
@@ -2045,9 +2047,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2">
         <v>8</v>
@@ -2086,9 +2088,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2">
         <v>19</v>
@@ -2127,9 +2129,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2">
         <v>136</v>
@@ -2168,9 +2170,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2">
         <v>53</v>
@@ -2209,9 +2211,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2">
         <v>63</v>
@@ -2250,9 +2252,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>135</v>
@@ -2291,9 +2293,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>21</v>
@@ -2332,9 +2334,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2">
         <v>54</v>
@@ -2373,9 +2375,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -2414,9 +2416,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2">
         <v>18</v>
@@ -2455,9 +2457,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B45" s="2">
         <v>26</v>
@@ -2496,9 +2498,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2">
         <v>23</v>
@@ -2537,9 +2539,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2">
         <v>24</v>
@@ -2578,9 +2580,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2">
         <v>4</v>
@@ -2619,9 +2621,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2">
         <v>28</v>
@@ -2660,9 +2662,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B50" s="2">
         <v>34</v>
@@ -2701,9 +2703,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B51" s="2">
         <v>17</v>
@@ -2742,9 +2744,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B52" s="2">
         <v>9</v>
@@ -2783,9 +2785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B53" s="2">
         <v>119</v>
@@ -2824,9 +2826,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B54" s="2">
         <v>62</v>
@@ -2865,9 +2867,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
         <v>7</v>
@@ -2906,9 +2908,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B56" s="2">
         <v>18</v>
@@ -2947,9 +2949,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>23</v>
@@ -2988,9 +2990,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B58" s="2">
         <v>146</v>
@@ -3029,9 +3031,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B59" s="2">
         <v>136</v>
@@ -3070,9 +3072,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B60" s="2">
         <v>7</v>
@@ -3111,9 +3113,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B61" s="2">
         <v>19</v>
@@ -3152,9 +3154,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B62" s="2">
         <v>37</v>
@@ -3193,9 +3195,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>10</v>
@@ -3234,9 +3236,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B64" s="2">
         <v>4</v>
@@ -3275,9 +3277,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B65" s="2">
         <v>242</v>
@@ -3316,9 +3318,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2">
         <v>17</v>
@@ -3357,9 +3359,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B67" s="2">
         <v>70</v>
@@ -3398,9 +3400,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B68" s="2">
         <v>54</v>
@@ -3439,9 +3441,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>42</v>
@@ -3480,9 +3482,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2">
         <v>34</v>
@@ -3521,9 +3523,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B71" s="2">
         <v>29</v>
@@ -3562,9 +3564,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B72" s="2">
         <v>16</v>
@@ -3603,9 +3605,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B73" s="2">
         <v>4</v>
@@ -3644,9 +3646,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B74" s="2">
         <v>32</v>
@@ -3685,9 +3687,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2">
         <v>8</v>
@@ -3726,9 +3728,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2">
         <v>2</v>
@@ -3767,9 +3769,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B77" s="2">
         <v>76</v>
@@ -3808,9 +3810,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B78" s="2">
         <v>6</v>
@@ -3849,7 +3851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
       <c r="F79" s="2"/>
       <c r="M79" s="2"/>
